--- a/data/hotels_by_city/Dallas/Dallas_shard_426.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_426.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="680">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Joe F</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>dbstiles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r574822085-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>kimberlylewis98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r570491073-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Rebecca A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r567997725-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -222,6 +234,9 @@
     <t>03/21/2018</t>
   </si>
   <si>
+    <t>mocha2268</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r567043924-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -231,6 +246,9 @@
     <t>03/17/2018</t>
   </si>
   <si>
+    <t>dflores316</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r566684618-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -246,6 +264,9 @@
     <t xml:space="preserve">The sheets were not changed. They were dirty and I found someone else's socks in the sheets. The towels in the restroom had stains and hair on them. It was the worst experience I have had in a hotel! There was bugs on the bathroom floor. Overall terrible experience. </t>
   </si>
   <si>
+    <t>mappsnesia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r554626396-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -267,6 +288,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>dogs4kids</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r552238521-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -282,6 +306,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>shikastam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r544293572-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -300,6 +327,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>la2shian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r542458511-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -315,6 +345,9 @@
     <t xml:space="preserve">It was nice stay. I slept comfortably and had no problem problems. I would recommend this hotel to everyone I know.  </t>
   </si>
   <si>
+    <t>apq2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r533478099-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -327,6 +360,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Purple_Fenix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r528974793-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -348,6 +384,9 @@
     <t>This was adequate enough for one night. The door to my room kept getting caught in the door frame so I had to really push against it to open and close it, not to mention there was about a 2 inch gap at the bottom corner of the door. The handle on the toilet was so loose it felt like one wrong move and it would've broken off, and I've stayed at places that had better continental breakfast. Checking in was easy enough, but one of the guys working the front desk didn't seem to know what he was doing. I was only in town for a concert at the Verizon Theater so this was fine for that, it's about a 7 min drive. More</t>
   </si>
   <si>
+    <t>amandapI8121GT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r526602008-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -363,6 +402,9 @@
     <t>It was not in the best area, room was not clean, toilet paper dispenser was broken off the wall, there was hair and old soap residue all over the bathroom, a group of guys were outside drinking and throwing beer cans and bottles on the parking lot. We called front desk several times, they did nothing. No coffee in the room by the maker!!! It was not good!!</t>
   </si>
   <si>
+    <t>Tramieka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r523856424-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -378,6 +420,9 @@
     <t>The room was very dirty. The bed was hard and no working A/C I asked for refund and was refused. I stayed two days they gave me a refund for one after the first night. I wanted a refund for both nights. The stay was a complete nightmare. I left at 7am the next day. I will never go back!</t>
   </si>
   <si>
+    <t>Rebekkah B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r521873392-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -396,6 +441,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>773ernestov</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r521433578-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -405,6 +453,9 @@
     <t>09/05/2017</t>
   </si>
   <si>
+    <t>manninger0305</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r517627526-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -423,6 +474,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>jesuso840</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r514379534-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -432,12 +486,18 @@
     <t>08/17/2017</t>
   </si>
   <si>
+    <t>Frogluvr313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r514355770-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
     <t>514355770</t>
   </si>
   <si>
+    <t>galaxy2017thardy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r510100398-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -453,6 +513,9 @@
     <t>Run.....This place was my worst experience anywhere. Busted door jams, uncleaned throw up on the side of the tub, notified wyndam...no response</t>
   </si>
   <si>
+    <t>karlagA5377SV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r508718247-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -465,6 +528,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Mary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r508225111-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -474,6 +540,9 @@
     <t>08/02/2017</t>
   </si>
   <si>
+    <t>SantaNista</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r499444785-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -501,6 +570,9 @@
     <t xml:space="preserve">Overall it was a good stay. Just one minor issue with a stain on the bed sheets. But they were changed right away and very apologetic </t>
   </si>
   <si>
+    <t>delaney2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r496232429-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -519,6 +591,9 @@
     <t>It's the worst hotel experience I have ever had. I always try to stay at a Wyndham Hotel, but not after this. There were bugs,  dirt and hair in the bathroom, I got athletes foot  from taking a shower here, and the chain lock on the door was broken.  One of the windows was cracked and the overall appearance of the room was horrid.  Not only was the room terrible, I did not sleep at all during the six hours I was there and I was not charged the correct rate. The employee at the front desk argued with me about it and did not fix the error.  For 10 or 15 more dollars, you should definitely go stay at another hotel. More</t>
   </si>
   <si>
+    <t>790ashley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r493090466-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -534,6 +609,9 @@
     <t>The reviews were accurate. It is not the best hotel. If you are looking for luxury you will not find it here. It did have good tv to watch. Don't use their soap either!</t>
   </si>
   <si>
+    <t>Ellen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r491392403-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -546,6 +624,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Raul G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r490125545-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -561,6 +642,9 @@
     <t>Terrible experience I will never comeback to this place,bedbugs bite me all night,I couldn't sleep ,I will not recommend this hotel to nobody,the manager did not do anything to help,never again.</t>
   </si>
   <si>
+    <t>kimberlyrX9439DX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r487832926-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -579,6 +663,9 @@
     <t>When first looking online I couldn't believe this lovely place had such good prices but once I arrived I honestly didnt think this was the right hotel. I typically check google maps to see how it looks but didn't this time as photos can be deceiving. The room I chose was a smoking allowed but I couldn't believe it smelled that bad. When I first got to the room it was already open and the door looked as though someone tried forcibly getting in so I was scared to even enter. When I left for an event I still smelled like cigarettes. I got back to the hotel and I couldn't take the smell and so I left otherwise I was sleeping in my car. The room online was nothing like it was in person. There was at least 5 min. of hot water and unlimited freezing cold water. The drawers were even broken which wasn't too surprising given the door looked the same way.More</t>
   </si>
   <si>
+    <t>crumbledcookie2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r485384997-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -588,6 +675,9 @@
     <t>05/18/2017</t>
   </si>
   <si>
+    <t>Sue R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r447627904-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -606,6 +696,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>jameseF7853CX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r445884318-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -615,6 +708,9 @@
     <t>12/21/2016</t>
   </si>
   <si>
+    <t>Christopher and... T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r439008849-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -633,6 +729,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Jennifer Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r436706315-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -648,6 +747,9 @@
     <t xml:space="preserve">This hotel did not meet my expectations.  It was smelly and not real clean.  It is a open to the outside hotel.  I really don't like these types.I will not stay here again unless very desperate.   Have a good trip but not here.  </t>
   </si>
   <si>
+    <t>kramerjok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r435683359-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -663,6 +765,9 @@
     <t>The area around parking lot was full of trash, remodeling trash was piled up on ground beside dumpster. Tub in room was filthy. Very hard matress. Terrible selection for breakfast.</t>
   </si>
   <si>
+    <t>Carol A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r433409922-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -673,6 +778,9 @@
   </si>
   <si>
     <t>October 2016</t>
+  </si>
+  <si>
+    <t>richt032016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r432522393-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
@@ -695,6 +803,9 @@
 When I got to the NS room, first of all, the room was nowhere near as nice as it was presented in the pictures. Do not be fooled, this is not as a nice motel as the pictures present. I'd say it's just your standard motel. The floor felt damp when we walked in and settled down, but I thought it was just from being cold. When I awoke the next morning however, I felt the bottom of my bag and it was really damp as well. I would've reported the problem, but with the attitude the woman at the desk had, I felt I'd be better off not wasting my breath....Now, I've stayed in several motels over the past year, and this is definitely my least favorite. When I got to the room, they had charged my card $10 more than the rate I had booked online. I told myself "Whatever, I just need a room for the night, the pictures looked nice, I'm sure it's ok." When I got to the room, it was a smoking room and I had reservations for a non-smoking room. No big deal, I'd walk to the desk to clear this up. The woman at the desk quickly fixed the issue, but reprimanded me for booking the wrong room. I apologized, but I really could've sworn that I had booked the correct type of room, so I was a little taken aback. When I got to the NS room, first of all, the room was nowhere near as nice as it was presented in the pictures. Do not be fooled, this is not as a nice motel as the pictures present. I'd say it's just your standard motel. The floor felt damp when we walked in and settled down, but I thought it was just from being cold. When I awoke the next morning however, I felt the bottom of my bag and it was really damp as well. I would've reported the problem, but with the attitude the woman at the desk had, I felt I'd be better off not wasting my breath. And the toilet didn't fully flush unless you held the handle down for awhile. Those were all cons to my stay, but on the plus side, the room did have pretty good cable! And the tv was better quality than most other motels I've stayed at. I can't say that the tv alone is enough for me to ever stay here again though. More</t>
   </si>
   <si>
+    <t>N9408ITjims</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r431301123-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -710,6 +821,9 @@
     <t xml:space="preserve">The facility was conveniently located to the Main Street restaurants and shops that were within walking distance . . . The non-smoking room was clean with no odors of previous smoking activity . . . The complimentary breakfast provided a good selection of eats . . . My only regret was that the pool was not open for use during an October heat wave that was occurring during my stay . . . An internet-connected computer was available just off the lobby for customer use . . . </t>
   </si>
   <si>
+    <t>SM65062399</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r425526051-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -722,6 +836,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>sampson2328</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r418875621-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -731,6 +848,9 @@
     <t>09/15/2016</t>
   </si>
   <si>
+    <t>Angelica B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r402459392-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -749,6 +869,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Nicholas C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r401496786-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -770,6 +893,9 @@
     <t>After checking in with the rude clerk, we got into our room and inspected for bedbugs before anything else. Luckily, didn't find any, but noticed that the floors hadn't been vacuumed, the coffee pot and ice bucket were filthy, the refrigerator had old food in it, the microwave was dirty, and the desk chair had some nasty old food stuck to it. We disinfected the entire room with Lysol before attempting to get settled in. The "maid" came the next day and only after requesting it, did a mediocre job of vacuuming, still leaving it somewhat dirty. There was a dead cockroach on the bathroom floor that wasn't even cleaned up when the maid came by to clean each day. If I were paying for the room myself, I wouldn't have even stayed. You get charged for the safe each day, even if you don't use it.More</t>
   </si>
   <si>
+    <t>TEMICKA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r397614041-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -785,6 +911,9 @@
     <t>Greeting staff horriblePool dirty/ hottub nonfunctionalCarpet dirtyToilet/tub/sink I purchased supplies and cleaned overRoaches all over the breakfast FOOD AREA... I WILL NEVER STAY THERE EVER EVER AGAIN</t>
   </si>
   <si>
+    <t>892kirkr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r394342125-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -800,6 +929,9 @@
     <t xml:space="preserve">Great stay, friendly staff that was able to assist with my request for an extra night. Cleanliness was impressive. </t>
   </si>
   <si>
+    <t>286dulceb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r390220090-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -809,6 +941,9 @@
     <t>07/07/2016</t>
   </si>
   <si>
+    <t>William W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r385094021-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -827,6 +962,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Q1071KKdanielm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r384378265-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -839,6 +977,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>tim m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r380380150-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -854,6 +995,9 @@
     <t>bugs,dirty,,,walls thin with fights and loud yelling till 12 midnight and started again at 4:30 am    checked my twins out at 5 am   never again    will contact howard Johnson corp. office   needs to be inspected by health dept....</t>
   </si>
   <si>
+    <t>5h0urenergy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r375949742-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -872,6 +1016,9 @@
     <t>Checked in around 1am. Clerk was passed the hell out. Woke him up with a hearty knock on the double doors. Dude was out of it when he kept asking me if I wanted a smoking or nonsmoking room. If he looked at my reservation like I told him, 3 times, he would know that it's a nonsmoking room. He fell asleep again when he was looking me up in the computer. I had to knock on the door again to wake him up. The next morning a new clerk at the desk had to make some new coffee for the continental breakfast, no big deal, but he came out wearing s pair of raggedy sandals. I mean, come on, I get that the neighborhood isn't the best, but at least try and dress professionally at your place of business. The room however was clean. No issues with it at all. Overall, not good but not the absolute worst. Would have gotten a solid 3/5 if my first experience with the staff wasn't a sleepy one. More</t>
   </si>
   <si>
+    <t>25normab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r371947716-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -881,6 +1028,9 @@
     <t>05/10/2016</t>
   </si>
   <si>
+    <t>451cherlyl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r370280204-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -893,6 +1043,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>birdmanSE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r363198363-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -902,6 +1055,9 @@
     <t>04/10/2016</t>
   </si>
   <si>
+    <t>382sandyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r361841598-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1073,9 @@
     <t>The beds were clean but there is no way I'd take a shower or bath there.! The bathroom was nasty and the water was brown when it comes out of faucet.!!! I paid way too much for this room.!!!! And they ran out of food at breakfast by 8am and did not restock.! I won't be back here.! Very disappointed, this room was maybe worth $59. And ice machine did not work.!</t>
   </si>
   <si>
+    <t>andreatS4879FN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r357329151-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1106,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>paulaj231</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r352187505-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1121,9 @@
     <t>It was a horrible experience at this particular location. I have had a wonderful experience with other Howard Johnson locations but this was disgusting.. mildew filthy and I was invested with some kind of bugs!!!</t>
   </si>
   <si>
+    <t>Paula j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r351969323-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1142,9 @@
     <t>My BF and I stayed for two days... there was mold on the ceiling, carpeting was very dirty, the toilet had a ring around really freakin' gross!! The owner/manager argued with me about the mold and said it was not mold!! "Hello there's black stuff all over the ceiling above the shower!! Its M O L D ! ! " BUT the worse part was I was bitten all over  my hands, left arm and neck. .. The two young staff in the front office were very sweet... I HIGHLY RECOMMEND "GO SOMEWHERE ELSE!!!" I HAVE STAYED AT OTHER HOWARD JOHNSONS AND THEY WERE WONDERFUL!!! So I don't feel that this Hotel Chain should not be discriminated because of this particular hotel and experience!!More</t>
   </si>
   <si>
+    <t>Benny B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r349704778-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -986,6 +1154,9 @@
     <t>02/21/2016</t>
   </si>
   <si>
+    <t>EveeT0403</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r348139918-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1001,6 +1172,9 @@
     <t>The room was filthy &amp; there was a stain on the carpet in front of the fridge that looked like vomit. There was an inch or so of dust on everything. The tub was nasty &amp; there was some mystery stain on the floor.</t>
   </si>
   <si>
+    <t>Jenn-ADV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r343959618-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1196,9 @@
     <t>I booked this through a website. We drove in and on the way in my little one started throwing up. I called to see if we could check in about an hour early to clean him up. Thwy said sure for $25 more. So I said forget it. Took him into a nearby gas station and cleaned him up. We are finally able to get to our room only to find thatvthere was blood smeared on the bathroom door and walls. The toilet ran constantly and the tub was leaking as if thw water was actually turned on. Because we had a sick kid I asked for a different room rather than leaving. Our second room was equally horrible.  When I went to check out I found out they charged my card $35 extra.  Oh well, it will fall off in a week. Also,breakfast was stale cereal, no milk, no fruit, waffles but no syrup and no coffee. Plus you could not take it out of the office. It was awful to lay at night listening to the sirens amd helicopter as they looked for n someone until the wee hours, since it is not the best neighborhood. Overall -5More</t>
   </si>
   <si>
+    <t>Elena R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r337274368-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1217,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>D9049SGthomasc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r336979124-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1058,6 +1238,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>955sandert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r335236332-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1256,9 @@
     <t>The room had a sweet smell like an existing odor was being covered up.  The bathroom was not well kept.  I was disappointed overall for a Wyndham property.</t>
   </si>
   <si>
+    <t>174kenneths</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r334251954-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1082,6 +1268,9 @@
     <t>12/21/2015</t>
   </si>
   <si>
+    <t>J7744VIvictoriad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r332476927-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1091,6 +1280,9 @@
     <t>12/13/2015</t>
   </si>
   <si>
+    <t>pinkbully</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r331503845-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1301,9 @@
     <t>It seems that this hotel is run by a family and their children. The check-in desk seemed to be by a girl who was maybe 18 years old. The staff at this hotel are very rude and unhelpful. They couldn't even figure out whose room belong to who and who was paying for what. The breakfast at this hotel is terrible &amp; they don't allow you to take the breakfast back to your room. Breakfast mainly consists of old muffins and bagels and the coffee is always out. There are no flavored creamers and the breakfast bar area seem to always have spills on it. I do not recommend this hotel. one does a  better paying a little bit extra and staying at a nicer place. I am sorry to say that I expected more from a Wyndham Hotel.More</t>
   </si>
   <si>
+    <t>H3856XFamandaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r320510566-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1331,9 @@
     <t xml:space="preserve">Relaxing atmosphere to unwind after a long day at work. Hot showers/ cable with flat screen TV/ wi-fi/ comfortable beds/ friendly staff. </t>
   </si>
   <si>
+    <t>Sharon L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r319968102-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1145,6 +1343,9 @@
     <t>10/18/2015</t>
   </si>
   <si>
+    <t>chrisjwalsh2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r319190702-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1355,9 @@
     <t>10/15/2015</t>
   </si>
   <si>
+    <t>145rubens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r291367193-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1166,6 +1370,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>inlovewithriddles177</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r282670412-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1388,9 @@
     <t>Close location to Lonestar Park. Free breakfast. Wasn't loaded up but had cereal, bagels, oatmeal, hot MYO waffles, juice, coffee. Two girls on staff were very sweet and accommodating. Rooms were good size. Not luxurious. Kids loved the pool. Easy to get to rooms. Access was outside with small flight of stairs. The only off thing was these beds were massively hard. Not comfy at all. Super fast Internet as well.</t>
   </si>
   <si>
+    <t>Charity J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r281962936-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1190,6 +1400,9 @@
     <t>06/21/2015</t>
   </si>
   <si>
+    <t>Katiria R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r281496731-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1199,6 +1412,9 @@
     <t>06/19/2015</t>
   </si>
   <si>
+    <t>H2048MXjenniferd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r280489055-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1208,12 +1424,18 @@
     <t>06/15/2015</t>
   </si>
   <si>
+    <t>alana h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r280469161-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
     <t>280469161</t>
   </si>
   <si>
+    <t>6carolynp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r277702437-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1454,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Shana L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r274273334-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1472,9 @@
     <t xml:space="preserve">Required deposit - will take 5 business days to credit back on my card. Would not provide receipt. Also gave me a smoking room requested non smoking. </t>
   </si>
   <si>
+    <t>carolinaicaza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r264119244-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1493,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Nicholas D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r263759255-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1514,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>kameshiat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r253595265-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1535,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>turquoiseblue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r251650001-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +1550,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>michaellO9599AW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r245134236-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1325,6 +1565,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Bobbie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r244815464-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +1586,9 @@
     <t>Husband was traveling through with our semi truck and trailer, i called ahead to ensure there was grjck parking Nd even specified 3 times the size of truck and trailer coming in, she assured me there was parking. After a long journey he arrived to find there was no truck parking :( luckily the hubby is  trucking master and was able to get it handled. As for the rest, the room was zuitable for his needs,sleep and shower. They did have breakfast but he didnt eat it.  The picture of the front hotel on here...first she wanted him to drive under that to a back parking area, then she asked if it would fit in that slab of concrete  u see in same pic in the front by the door.  Lol silly girl she was! More</t>
   </si>
   <si>
+    <t>teeka1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r237642529-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1355,6 +1601,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Sandra R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r203136748-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1373,6 +1622,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Albert V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r200033139-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1385,6 +1637,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Toni N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r191931195-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1409,6 +1664,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>George G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r189517693-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1418,6 +1676,9 @@
     <t>01/03/2014</t>
   </si>
   <si>
+    <t>Bruce And Kay S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r186081160-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1430,6 +1691,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Shannon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r184522796-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1709,9 @@
     <t>The room was clean and parking lot was well lit.  My daughter, her friend and I decided to stay here because of the location.  It was close to our venue and since we were from another state wanted the shortest and easiest way to get where we were going.  Television had limited channels and most were out of focus.  Beds were extremely comfortable!!!!  Easy to check in and out.  Since we were visiting from out of town would of liked the front desk staff to be more helpful.  We asked for a map or where we could purchase one but she was unable to understand English and was unhelpful.</t>
   </si>
   <si>
+    <t>Gerd A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r179606213-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1457,6 +1724,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>RBrown78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r179257995-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1466,6 +1736,9 @@
     <t>09/30/2013</t>
   </si>
   <si>
+    <t>Mel D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r177587019-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1748,9 @@
     <t>09/17/2013</t>
   </si>
   <si>
+    <t>Verna Lanette P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r175818334-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1763,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r170739306-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1496,6 +1775,9 @@
     <t>08/04/2013</t>
   </si>
   <si>
+    <t>Priscilla J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r168875064-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1514,6 +1796,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>A S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r166961601-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1523,6 +1808,9 @@
     <t>07/09/2013</t>
   </si>
   <si>
+    <t>Alisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r165936674-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1535,6 +1823,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Dan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r163506089-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1835,9 @@
     <t>06/09/2013</t>
   </si>
   <si>
+    <t>Brandy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r160832395-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1556,6 +1850,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Heather B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r158722755-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1574,6 +1871,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Maris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r157851413-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1595,6 +1895,9 @@
     <t>03/16/2013</t>
   </si>
   <si>
+    <t>KATHY P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r143219169-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1613,6 +1916,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>ReyesMcallen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r142588050-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1928,9 @@
     <t>10/11/2012</t>
   </si>
   <si>
+    <t>KENNETH D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r141772476-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1640,6 +1949,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Wade A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r124725468-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1658,6 +1970,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Msh0530</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r121335057-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1676,6 +1991,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>ryanarwen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r39298706-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +2015,9 @@
     <t>The "continental" breakfast was bread and stale cereal with some dry muffins, I have stayed in hotels for the same price as this one and gotten a better value for the breakfast than that. The room was filthy, the bedding smelled like the prior guest, the only reason I was able to sleep on the hard and creaky bed was the fact I was exhausted from traveling. The light in the bathroom was burning and was right over the toilet so it made us contemplate going elsewhere to use the restroom over using that one or having the door open to avoid using the light. The fridge was set to freeze everything and when I mentioned it to the front desk on my way out the door their response was "did you check the setting?" NO that was not my job I am saving you the trouble of disgruntled guests, you already ruined drinks of ours. The internet was spotty, I think I actually got better service hopping on McDonalds down the road than the hotel's and the cable was fuzzy at best. That isn't even getting into the location or the directions how to get to the location from the hotel. I would NEVER stay there again.More</t>
   </si>
   <si>
+    <t>karategammie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r22833749-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1713,6 +2034,9 @@
   </si>
   <si>
     <t>December 2008</t>
+  </si>
+  <si>
+    <t>heather80</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d265936-r14493754-Howard_Johnson_Express_Inn_Grand_Prairie_Near_Lone_Star_Park-Grand_Prairie_Texas.html</t>
@@ -2238,43 +2562,47 @@
       <c r="A2" t="n">
         <v>39558</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>18935</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2292,35 +2620,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39558</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>159867</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2328,10 +2660,10 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2352,49 +2684,50 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39558</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>159868</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2418,35 +2751,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39558</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>29840</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2454,10 +2791,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2478,36 +2815,37 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39558</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>159869</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2515,10 +2853,10 @@
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2539,51 +2877,52 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39558</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>159870</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2607,50 +2946,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39558</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>159871</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2674,35 +3017,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39558</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>159872</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2710,10 +3057,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2734,51 +3081,52 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39558</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>159873</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2802,50 +3150,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39558</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>159874</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2869,35 +3221,39 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39558</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>159875</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2905,10 +3261,10 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2929,51 +3285,52 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39558</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>159876</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2987,50 +3344,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39558</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>159877</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3054,50 +3415,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39558</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>159878</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3121,50 +3486,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39558</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>29060</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3188,35 +3557,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39558</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>159879</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -3224,10 +3597,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3248,51 +3621,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39558</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>159880</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3316,48 +3690,52 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39558</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>159881</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3381,35 +3759,39 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39558</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>159882</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -3417,10 +3799,10 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3441,51 +3823,52 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39558</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>159883</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>140</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>125</v>
-      </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3509,35 +3892,39 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39558</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>159884</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3545,10 +3932,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3569,36 +3956,37 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39558</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>2595</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3606,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3630,36 +4018,37 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39558</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>159885</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3667,10 +4056,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3691,51 +4080,52 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39558</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>159873</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3759,50 +4149,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39558</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>159886</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3826,50 +4220,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39558</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>114334</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="J27" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3893,48 +4291,52 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39558</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>9584</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="J28" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3958,50 +4360,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39558</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>159887</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4025,50 +4431,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39558</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>159888</v>
+      </c>
+      <c r="C30" t="s">
+        <v>208</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4092,48 +4502,52 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39558</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>159889</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="J31" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4157,50 +4571,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39558</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>1249</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -4224,48 +4642,52 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39558</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>159890</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="J33" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4289,50 +4711,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39558</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>159891</v>
+      </c>
+      <c r="C34" t="s">
+        <v>230</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="K34" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4352,50 +4778,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39558</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>72670</v>
+      </c>
+      <c r="C35" t="s">
+        <v>237</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="J35" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="K35" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="O35" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4409,50 +4839,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39558</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>159892</v>
+      </c>
+      <c r="C36" t="s">
+        <v>243</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="J36" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K36" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4476,35 +4910,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39558</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>34275</v>
+      </c>
+      <c r="C37" t="s">
+        <v>249</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="J37" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4512,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4536,51 +4974,52 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39558</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>159893</v>
+      </c>
+      <c r="C38" t="s">
+        <v>254</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="J38" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="K38" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="L38" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -4604,50 +5043,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39558</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>159894</v>
+      </c>
+      <c r="C39" t="s">
+        <v>261</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="J39" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4671,48 +5114,52 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39558</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>159895</v>
+      </c>
+      <c r="C40" t="s">
+        <v>267</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="J40" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4730,35 +5177,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39558</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>159896</v>
+      </c>
+      <c r="C41" t="s">
+        <v>272</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="J41" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4766,10 +5217,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="O41" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4790,51 +5241,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39558</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>159897</v>
+      </c>
+      <c r="C42" t="s">
+        <v>276</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="J42" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4858,50 +5310,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39558</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>7117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>283</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="K43" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="L43" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="O43" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4921,50 +5377,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39558</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>159898</v>
+      </c>
+      <c r="C44" t="s">
+        <v>291</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="J44" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="K44" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="L44" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="O44" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4980,50 +5440,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39558</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>159899</v>
+      </c>
+      <c r="C45" t="s">
+        <v>297</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="J45" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="K45" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5047,35 +5511,39 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39558</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>159900</v>
+      </c>
+      <c r="C46" t="s">
+        <v>303</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="J46" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -5083,10 +5551,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -5107,51 +5575,52 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39558</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>333</v>
+      </c>
+      <c r="C47" t="s">
+        <v>307</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="J47" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="L47" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="O47" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5165,35 +5634,39 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39558</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>159901</v>
+      </c>
+      <c r="C48" t="s">
+        <v>314</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="J48" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -5201,10 +5674,10 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5225,42 +5698,43 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39558</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>60169</v>
+      </c>
+      <c r="C49" t="s">
+        <v>319</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="J49" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="K49" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
@@ -5279,50 +5753,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39558</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>159902</v>
+      </c>
+      <c r="C50" t="s">
+        <v>325</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="J50" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="K50" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5346,35 +5824,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39558</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>159903</v>
+      </c>
+      <c r="C51" t="s">
+        <v>332</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="J51" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5382,10 +5864,10 @@
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5406,36 +5888,37 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39558</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>159904</v>
+      </c>
+      <c r="C52" t="s">
+        <v>336</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="J52" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5443,10 +5926,10 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5467,36 +5950,37 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39558</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>159905</v>
+      </c>
+      <c r="C53" t="s">
+        <v>341</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="J53" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5504,10 +5988,10 @@
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="O53" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5528,51 +6012,52 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39558</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>159906</v>
+      </c>
+      <c r="C54" t="s">
+        <v>345</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="J54" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="K54" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="L54" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5596,35 +6081,39 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39558</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>159907</v>
+      </c>
+      <c r="C55" t="s">
+        <v>351</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="J55" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5632,10 +6121,10 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>2</v>
@@ -5656,51 +6145,52 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39558</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>333</v>
+      </c>
+      <c r="C56" t="s">
+        <v>307</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="J56" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="O56" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5724,50 +6214,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39558</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>159908</v>
+      </c>
+      <c r="C57" t="s">
+        <v>362</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="J57" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="O57" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5791,50 +6285,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39558</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>159909</v>
+      </c>
+      <c r="C58" t="s">
+        <v>367</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="J58" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="K58" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="L58" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="O58" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5852,35 +6350,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39558</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>159910</v>
+      </c>
+      <c r="C59" t="s">
+        <v>374</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="J59" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5888,10 +6390,10 @@
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="O59" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5912,51 +6414,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39558</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>159911</v>
+      </c>
+      <c r="C60" t="s">
+        <v>378</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="J60" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="K60" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5974,50 +6477,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39558</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>159912</v>
+      </c>
+      <c r="C61" t="s">
+        <v>384</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="J61" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="K61" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="L61" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6031,50 +6538,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39558</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>33534</v>
+      </c>
+      <c r="C62" t="s">
+        <v>392</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="J62" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="K62" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="L62" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6098,50 +6609,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39558</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>159913</v>
+      </c>
+      <c r="C63" t="s">
+        <v>399</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="J63" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="K63" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="L63" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="O63" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6165,50 +6680,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39558</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>159914</v>
+      </c>
+      <c r="C64" t="s">
+        <v>406</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="J64" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="K64" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="L64" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="O64" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6232,48 +6751,52 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39558</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>159915</v>
+      </c>
+      <c r="C65" t="s">
+        <v>412</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="J65" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="O65" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6297,35 +6820,39 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39558</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>159916</v>
+      </c>
+      <c r="C66" t="s">
+        <v>416</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="J66" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s"/>
@@ -6333,10 +6860,10 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6357,51 +6884,52 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
-      <c r="Y66" t="s"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39558</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>159917</v>
+      </c>
+      <c r="C67" t="s">
+        <v>420</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="J67" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="K67" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="L67" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="O67" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6417,35 +6945,39 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>362</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39558</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>159918</v>
+      </c>
+      <c r="C68" t="s">
+        <v>427</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="J68" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6453,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="O68" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6477,51 +7009,52 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39558</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>333</v>
+      </c>
+      <c r="C69" t="s">
+        <v>307</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="J69" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="K69" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="L69" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="O69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6545,35 +7078,39 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39558</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>20339</v>
+      </c>
+      <c r="C70" t="s">
+        <v>437</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="J70" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6581,10 +7118,10 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -6605,36 +7142,37 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39558</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>159919</v>
+      </c>
+      <c r="C71" t="s">
+        <v>441</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="J71" t="s">
-        <v>377</v>
+        <v>444</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6642,10 +7180,10 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="O71" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -6666,36 +7204,37 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39558</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>159920</v>
+      </c>
+      <c r="C72" t="s">
+        <v>445</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="J72" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6703,10 +7242,10 @@
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -6727,51 +7266,52 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39558</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>159921</v>
+      </c>
+      <c r="C73" t="s">
+        <v>450</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="J73" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="K73" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="L73" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6795,48 +7335,52 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39558</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>159922</v>
+      </c>
+      <c r="C74" t="s">
+        <v>456</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="J74" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -6860,35 +7404,39 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39558</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>159923</v>
+      </c>
+      <c r="C75" t="s">
+        <v>460</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="J75" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -6896,10 +7444,10 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="O75" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -6920,36 +7468,37 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39558</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>159924</v>
+      </c>
+      <c r="C76" t="s">
+        <v>464</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>393</v>
+        <v>465</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="J76" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -6957,10 +7506,10 @@
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6981,36 +7530,37 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>39558</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>159925</v>
+      </c>
+      <c r="C77" t="s">
+        <v>468</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="J77" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7018,10 +7568,10 @@
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7042,51 +7592,52 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>39558</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>159926</v>
+      </c>
+      <c r="C78" t="s">
+        <v>471</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="J78" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="K78" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="L78" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -7110,50 +7661,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>39558</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>159927</v>
+      </c>
+      <c r="C79" t="s">
+        <v>478</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="J79" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="K79" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
       <c r="L79" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="O79" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7177,50 +7732,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>39558</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>159928</v>
+      </c>
+      <c r="C80" t="s">
+        <v>484</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="J80" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="K80" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="L80" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="O80" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -7234,50 +7793,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>39558</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>26742</v>
+      </c>
+      <c r="C81" t="s">
+        <v>491</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>416</v>
+        <v>493</v>
       </c>
       <c r="J81" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="K81" t="s">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="L81" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="O81" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7301,50 +7864,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>39558</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>159929</v>
+      </c>
+      <c r="C82" t="s">
+        <v>498</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="J82" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="K82" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="L82" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7368,35 +7935,39 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>39558</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>159930</v>
+      </c>
+      <c r="C83" t="s">
+        <v>505</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="J83" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -7404,10 +7975,10 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -7428,36 +7999,37 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>39558</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>159931</v>
+      </c>
+      <c r="C84" t="s">
+        <v>510</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="J84" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -7465,10 +8037,10 @@
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7489,51 +8061,52 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>39558</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>31891</v>
+      </c>
+      <c r="C85" t="s">
+        <v>515</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>435</v>
+        <v>516</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="J85" t="s">
-        <v>437</v>
+        <v>518</v>
       </c>
       <c r="K85" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="L85" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
       <c r="O85" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -7547,35 +8120,39 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>39558</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>159932</v>
+      </c>
+      <c r="C86" t="s">
+        <v>522</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>441</v>
+        <v>523</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="J86" t="s">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7583,10 +8160,10 @@
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="O86" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -7607,51 +8184,52 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>39558</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C87" t="s">
+        <v>527</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>445</v>
+        <v>528</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="J87" t="s">
-        <v>447</v>
+        <v>530</v>
       </c>
       <c r="K87" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="L87" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="O87" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -7675,35 +8253,39 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>39558</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>159933</v>
+      </c>
+      <c r="C88" t="s">
+        <v>534</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="J88" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -7711,10 +8293,10 @@
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>454</v>
+        <v>538</v>
       </c>
       <c r="O88" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -7735,36 +8317,37 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>39558</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>159934</v>
+      </c>
+      <c r="C89" t="s">
+        <v>539</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>455</v>
+        <v>540</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="J89" t="s">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -7772,10 +8355,10 @@
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>458</v>
+        <v>543</v>
       </c>
       <c r="O89" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -7796,36 +8379,37 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>39558</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>333</v>
+      </c>
+      <c r="C90" t="s">
+        <v>307</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>459</v>
+        <v>544</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="J90" t="s">
-        <v>461</v>
+        <v>546</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -7833,10 +8417,10 @@
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>462</v>
+        <v>547</v>
       </c>
       <c r="O90" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -7857,36 +8441,37 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>39558</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>15849</v>
+      </c>
+      <c r="C91" t="s">
+        <v>548</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>463</v>
+        <v>549</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>464</v>
+        <v>550</v>
       </c>
       <c r="J91" t="s">
-        <v>465</v>
+        <v>551</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -7894,10 +8479,10 @@
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>462</v>
+        <v>547</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -7918,36 +8503,37 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>39558</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>159935</v>
+      </c>
+      <c r="C92" t="s">
+        <v>552</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>466</v>
+        <v>553</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>467</v>
+        <v>554</v>
       </c>
       <c r="J92" t="s">
-        <v>468</v>
+        <v>555</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -7955,10 +8541,10 @@
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>469</v>
+        <v>556</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -7979,51 +8565,52 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>39558</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>3878</v>
+      </c>
+      <c r="C93" t="s">
+        <v>557</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>471</v>
+        <v>559</v>
       </c>
       <c r="J93" t="s">
-        <v>472</v>
+        <v>560</v>
       </c>
       <c r="K93" t="s">
-        <v>473</v>
+        <v>561</v>
       </c>
       <c r="L93" t="s">
-        <v>474</v>
+        <v>562</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>469</v>
+        <v>556</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8047,35 +8634,39 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>474</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>39558</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>159936</v>
+      </c>
+      <c r="C94" t="s">
+        <v>563</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>475</v>
+        <v>564</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>476</v>
+        <v>565</v>
       </c>
       <c r="J94" t="s">
-        <v>477</v>
+        <v>566</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8083,10 +8674,10 @@
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="O94" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8107,36 +8698,37 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>39558</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>159937</v>
+      </c>
+      <c r="C95" t="s">
+        <v>568</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>479</v>
+        <v>569</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="J95" t="s">
-        <v>481</v>
+        <v>571</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s"/>
@@ -8144,10 +8736,10 @@
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -8168,36 +8760,37 @@
       <c r="V95" t="n">
         <v>0</v>
       </c>
-      <c r="W95" t="s"/>
-      <c r="X95" t="s"/>
-      <c r="Y95" t="s"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>39558</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>96811</v>
+      </c>
+      <c r="C96" t="s">
+        <v>572</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>483</v>
+        <v>574</v>
       </c>
       <c r="J96" t="s">
-        <v>484</v>
+        <v>575</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s"/>
@@ -8205,10 +8798,10 @@
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -8229,49 +8822,50 @@
       <c r="V96" t="n">
         <v>0</v>
       </c>
-      <c r="W96" t="s"/>
-      <c r="X96" t="s"/>
-      <c r="Y96" t="s"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>39558</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>159938</v>
+      </c>
+      <c r="C97" t="s">
+        <v>576</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>486</v>
+        <v>578</v>
       </c>
       <c r="J97" t="s">
-        <v>487</v>
+        <v>579</v>
       </c>
       <c r="K97" t="s"/>
       <c r="L97" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -8295,35 +8889,39 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>39558</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>358</v>
+      </c>
+      <c r="C98" t="s">
+        <v>581</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>489</v>
+        <v>582</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>490</v>
+        <v>583</v>
       </c>
       <c r="J98" t="s">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -8331,10 +8929,10 @@
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8355,51 +8953,52 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>39558</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>37906</v>
+      </c>
+      <c r="C99" t="s">
+        <v>585</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="J99" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="K99" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="L99" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8423,48 +9022,52 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>39558</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>82076</v>
+      </c>
+      <c r="C100" t="s">
+        <v>592</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>498</v>
+        <v>593</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>499</v>
+        <v>594</v>
       </c>
       <c r="J100" t="s">
-        <v>500</v>
+        <v>595</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -8488,48 +9091,52 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>39558</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>47655</v>
+      </c>
+      <c r="C101" t="s">
+        <v>596</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>501</v>
+        <v>597</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>502</v>
+        <v>598</v>
       </c>
       <c r="J101" t="s">
-        <v>503</v>
+        <v>599</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="O101" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -8553,35 +9160,39 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>39558</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C102" t="s">
+        <v>601</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>505</v>
+        <v>602</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
       <c r="J102" t="s">
-        <v>507</v>
+        <v>604</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s"/>
@@ -8589,10 +9200,10 @@
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="O102" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -8613,49 +9224,50 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>39558</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>25805</v>
+      </c>
+      <c r="C103" t="s">
+        <v>605</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>508</v>
+        <v>606</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>509</v>
+        <v>607</v>
       </c>
       <c r="J103" t="s">
-        <v>510</v>
+        <v>608</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -8679,50 +9291,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>39558</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>19183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>610</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>512</v>
+        <v>611</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>513</v>
+        <v>612</v>
       </c>
       <c r="J104" t="s">
-        <v>514</v>
+        <v>613</v>
       </c>
       <c r="K104" t="s">
-        <v>515</v>
+        <v>614</v>
       </c>
       <c r="L104" t="s">
-        <v>516</v>
+        <v>615</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>517</v>
+        <v>616</v>
       </c>
       <c r="O104" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -8746,35 +9362,39 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>516</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>39558</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>159939</v>
+      </c>
+      <c r="C105" t="s">
+        <v>617</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>518</v>
+        <v>618</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="J105" t="s">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s"/>
@@ -8782,10 +9402,10 @@
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>521</v>
+        <v>621</v>
       </c>
       <c r="O105" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -8806,36 +9426,37 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
-      <c r="W105" t="s"/>
-      <c r="X105" t="s"/>
-      <c r="Y105" t="s"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>39558</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>333</v>
+      </c>
+      <c r="C106" t="s">
+        <v>307</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>522</v>
+        <v>622</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>523</v>
+        <v>623</v>
       </c>
       <c r="J106" t="s">
-        <v>524</v>
+        <v>624</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s"/>
@@ -8843,10 +9464,10 @@
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>517</v>
+        <v>616</v>
       </c>
       <c r="O106" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -8867,51 +9488,52 @@
       <c r="V106" t="n">
         <v>0</v>
       </c>
-      <c r="W106" t="s"/>
-      <c r="X106" t="s"/>
-      <c r="Y106" t="s"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>39558</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>159940</v>
+      </c>
+      <c r="C107" t="s">
+        <v>625</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>525</v>
+        <v>626</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>526</v>
+        <v>627</v>
       </c>
       <c r="J107" t="s">
-        <v>527</v>
+        <v>628</v>
       </c>
       <c r="K107" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="L107" t="s">
-        <v>529</v>
+        <v>630</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>530</v>
+        <v>631</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -8935,35 +9557,39 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>529</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>39558</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>159941</v>
+      </c>
+      <c r="C108" t="s">
+        <v>632</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>531</v>
+        <v>633</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>532</v>
+        <v>634</v>
       </c>
       <c r="J108" t="s">
-        <v>533</v>
+        <v>635</v>
       </c>
       <c r="K108" t="s"/>
       <c r="L108" t="s"/>
@@ -8971,10 +9597,10 @@
         <v>2</v>
       </c>
       <c r="N108" t="s">
-        <v>530</v>
+        <v>631</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -8995,51 +9621,52 @@
       <c r="V108" t="n">
         <v>0</v>
       </c>
-      <c r="W108" t="s"/>
-      <c r="X108" t="s"/>
-      <c r="Y108" t="s"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>39558</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>115673</v>
+      </c>
+      <c r="C109" t="s">
+        <v>636</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>534</v>
+        <v>637</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>535</v>
+        <v>638</v>
       </c>
       <c r="J109" t="s">
-        <v>536</v>
+        <v>639</v>
       </c>
       <c r="K109" t="s">
-        <v>537</v>
+        <v>640</v>
       </c>
       <c r="L109" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>539</v>
+        <v>642</v>
       </c>
       <c r="O109" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9063,50 +9690,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>39558</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>159942</v>
+      </c>
+      <c r="C110" t="s">
+        <v>643</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>540</v>
+        <v>644</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>541</v>
+        <v>645</v>
       </c>
       <c r="J110" t="s">
-        <v>542</v>
+        <v>646</v>
       </c>
       <c r="K110" t="s">
-        <v>543</v>
+        <v>647</v>
       </c>
       <c r="L110" t="s">
-        <v>544</v>
+        <v>648</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>545</v>
+        <v>649</v>
       </c>
       <c r="O110" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -9130,50 +9761,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>544</v>
+        <v>648</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>39558</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>159943</v>
+      </c>
+      <c r="C111" t="s">
+        <v>650</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>546</v>
+        <v>651</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>547</v>
+        <v>652</v>
       </c>
       <c r="J111" t="s">
-        <v>548</v>
+        <v>653</v>
       </c>
       <c r="K111" t="s">
-        <v>549</v>
+        <v>654</v>
       </c>
       <c r="L111" t="s">
-        <v>550</v>
+        <v>655</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>551</v>
+        <v>656</v>
       </c>
       <c r="O111" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P111" t="n">
         <v>4</v>
@@ -9197,50 +9832,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>550</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>39558</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>159944</v>
+      </c>
+      <c r="C112" t="s">
+        <v>657</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>552</v>
+        <v>658</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>553</v>
+        <v>659</v>
       </c>
       <c r="J112" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="K112" t="s">
-        <v>555</v>
+        <v>661</v>
       </c>
       <c r="L112" t="s">
-        <v>556</v>
+        <v>662</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="O112" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -9264,50 +9903,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>558</v>
+        <v>664</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>39558</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>159945</v>
+      </c>
+      <c r="C113" t="s">
+        <v>665</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>559</v>
+        <v>666</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>560</v>
+        <v>667</v>
       </c>
       <c r="J113" t="s">
-        <v>561</v>
+        <v>668</v>
       </c>
       <c r="K113" t="s">
-        <v>562</v>
+        <v>669</v>
       </c>
       <c r="L113" t="s">
-        <v>563</v>
+        <v>670</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>564</v>
+        <v>671</v>
       </c>
       <c r="O113" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -9331,50 +9974,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>563</v>
+        <v>670</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>39558</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>159946</v>
+      </c>
+      <c r="C114" t="s">
+        <v>672</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>565</v>
+        <v>673</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="J114" t="s">
-        <v>567</v>
+        <v>675</v>
       </c>
       <c r="K114" t="s">
-        <v>568</v>
+        <v>676</v>
       </c>
       <c r="L114" t="s">
-        <v>569</v>
+        <v>677</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>570</v>
+        <v>678</v>
       </c>
       <c r="O114" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P114" t="n">
         <v>2</v>
@@ -9398,7 +10045,7 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>571</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
